--- a/document/data source_課程資料/國中/skills_info/skill_info_數學3下.xlsx
+++ b/document/data source_課程資料/國中/skills_info/skill_info_數學3下.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\data source_課程資料\國中\skills_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="11083"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="規則一樣 這是這個系統的使用者主要會使用的部分 依功文數學的精" sheetId="1" r:id="rId4"/>
+    <sheet name="規則一樣 這是這個系統的使用者主要會使用的部分 依功文數學的精" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -61,9 +69,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「二次」函數的 x 最高次方「必須」是 2 次。</t>
-  </si>
-  <si>
     <t>jh_quad_func_graph_ax2</t>
   </si>
   <si>
@@ -79,9 +84,6 @@
     <t>handwriting</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 y=ax² 的頂點是 (0,0)。若 a &gt; 0 開口向上；若 a &lt; 0 開口向下。</t>
-  </si>
-  <si>
     <t>jh_quad_func_graph_ax2_k</t>
   </si>
   <si>
@@ -94,9 +96,6 @@
     <t>熟練描繪 y=ax²+k 的圖形（鉛直平移），並找出頂點 (0, k)。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 y=ax²+k 是將 y=ax²「鉛直平移」k 單位，頂點移至 (0, k)。</t>
-  </si>
-  <si>
     <t>jh_quad_func_graph_a_x_h_2</t>
   </si>
   <si>
@@ -109,9 +108,6 @@
     <t>熟練描繪 y=a(x-h)² 的圖形（水平平移），並找出頂點 (h, 0)。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 y=a(x-h)² 是將 y=ax²「水平平移」h 單位，頂點移至 (h, 0)。</t>
-  </si>
-  <si>
     <t>jh_quad_func_graph_a_x_h_2_k</t>
   </si>
   <si>
@@ -124,9 +120,6 @@
     <t>熟練描繪 y=a(x-h)²+k 的圖形（頂點式），並找出頂點 (h, k)。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 y=a(x-h)²+k 的頂點是 (h, k)，對稱軸是 x=h。</t>
-  </si>
-  <si>
     <t>jh_quad_func_complete_square_simple</t>
   </si>
   <si>
@@ -139,9 +132,6 @@
     <t>熟練將 y = x² + bx + c 配方為 y = (x-h)² + k 的形式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生配方步驟：加上「一次項係數一半的平方」，並在後面減掉。</t>
-  </si>
-  <si>
     <t>jh_quad_func_complete_square_general</t>
   </si>
   <si>
@@ -154,9 +144,6 @@
     <t>熟練將 y = ax² + bx + c 配方為 y = a(x-h)² + k 的形式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生 1. 提出 a： y = a(x² + (b/a)x) + c。 2. 括號內配方。 3. 注意提出括號外的常數項。</t>
-  </si>
-  <si>
     <t>jh_quad_func_max_min_vertex</t>
   </si>
   <si>
@@ -169,9 +156,6 @@
     <t>熟練利用配方法找出 y = ax² + bx + c 的頂點，並判斷最大值或最小值。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生 1. 配方法找出頂點 (h, k)。 2. 若 a&gt;0 (開口向上)，在 x=h 有最小值 k。 3. 若 a&lt;0 (開口向下)，在 x=h 有最大值 k。</t>
-  </si>
-  <si>
     <t>jh_quad_func_axis_intercepts</t>
   </si>
   <si>
@@ -184,9 +168,6 @@
     <t>熟練計算二次函數圖形與 y 軸的交點（令 x=0）及 x 軸的交點（令 y=0）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「與 y 軸交點」：令 x=0 代入；「與 x 軸交點」：令 y=0，解一元二次方程式。</t>
-  </si>
-  <si>
     <t>jh_quad_func_discriminant_intercepts</t>
   </si>
   <si>
@@ -199,9 +180,6 @@
     <t>熟練應用判別式 D = b²-4ac 判斷圖形與 x 軸的交點個數。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 D &gt; 0 (兩交點)；D = 0 (相切，一交點)；D &lt; 0 (無交點)。</t>
-  </si>
-  <si>
     <t>jh_quad_func_word_problem</t>
   </si>
   <si>
@@ -214,9 +192,6 @@
     <t>熟練依題意列出二次函數，並利用配方法求極值解應用問題。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生 1. 依題意列出 y = f(x) 的二次函數。 2. 配方法找出頂點。 3. 依據開口方向回答最大值或最小值。</t>
-  </si>
-  <si>
     <t>jh_stats_box_plot_draw</t>
   </si>
   <si>
@@ -232,9 +207,6 @@
     <t>熟練找出五個數值（Min, Q₁, Me, Q₃, Max）並繪製盒狀圖。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生 1. 先排序。 2. 找出 Me (Q₂), Q₁, Q₃。 3. 畫出盒子（Q₁ 到 Q₃）與鬍鬚（Min, Max）。</t>
-  </si>
-  <si>
     <t>jh_stats_box_plot_read</t>
   </si>
   <si>
@@ -247,9 +219,6 @@
     <t>熟練判讀盒狀圖中的中位數、四分位距 (IQR = Q₃ - Q₁) 與資料分布情形。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「盒子」代表中間 50% 的資料，「盒子越短」代表資料越集中。</t>
-  </si>
-  <si>
     <t>jh_prob_def_classical</t>
   </si>
   <si>
@@ -265,9 +234,6 @@
     <t>熟練計算古典機率 P(A) = (A 事件發生的結果數) / (所有可能的結果總數)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 P(A) = n(A) / n(S)，且 0 ≤ P(A) ≤ 1。</t>
-  </si>
-  <si>
     <t>jh_prob_list_outcomes_simple</t>
   </si>
   <si>
@@ -280,9 +246,6 @@
     <t>熟練列舉單一步驟試驗的所有可能結果 (n(S))（如擲骰子、抽球）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「所有可能結果」必須「不重複、不遺漏」。</t>
-  </si>
-  <si>
     <t>jh_prob_list_outcomes_tree_diagram</t>
   </si>
   <si>
@@ -295,9 +258,6 @@
     <t>熟練使用「樹狀圖」列舉多步驟試驗的所有可能結果 (n(S))。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，引導學生「分步驟」畫樹狀圖，並計算「末端」共有幾種結果。</t>
-  </si>
-  <si>
     <t>jh_prob_list_outcomes_table</t>
   </si>
   <si>
@@ -310,9 +270,6 @@
     <t>熟練使用「表格法」列舉兩步驟試驗的所有可能結果 (n(S))（如擲兩骰子）。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，引導學生畫出 6x6 (或 NxM) 的表格，並檢查總格數。</t>
-  </si>
-  <si>
     <t>jh_prob_event_complementary</t>
   </si>
   <si>
@@ -325,9 +282,6 @@
     <t>熟練應用餘事件機率 P(A') = 1 - P(A)（例如：「至少一正面」 = 1 - 「全反面」）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「至少...」的問題，通常用「全部機率 (1)」扣掉「完全沒有...」的機率比較快。</t>
-  </si>
-  <si>
     <t>jh_geo_3d_plane_def</t>
   </si>
   <si>
@@ -343,9 +297,6 @@
     <t>認識空間中平面的意義（無限延伸）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「平面」是無限延伸、平坦的面。</t>
-  </si>
-  <si>
     <t>jh_geo_3d_line_plane_relations_simple</t>
   </si>
   <si>
@@ -358,9 +309,6 @@
     <t>熟練辨識空間中「直線」與「平面」的關係（平行 / 相交一點 / 線在面上）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生判斷直線 L 與平面 E 有「0 個」、「1 個」或「無限多個」交點。</t>
-  </si>
-  <si>
     <t>jh_geo_3d_plane_relations_simple</t>
   </si>
   <si>
@@ -373,9 +321,6 @@
     <t>熟練辨識空間中「兩平面」的關係（平行 / 相交一直線 / 重合）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生判斷兩平面 E₁, E₂ 有「0 個」、「1 條線」或「無限多個」交點。</t>
-  </si>
-  <si>
     <t>jh_geo_3d_skew_lines_def</t>
   </si>
   <si>
@@ -388,9 +333,6 @@
     <t>熟練辨識空間中「歪斜」的兩直線（不相交且不平行）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「歪斜」的條件是「不平行」且「不相交」（在不同平面上）。</t>
-  </si>
-  <si>
     <t>jh_geo_3d_prism_def</t>
   </si>
   <si>
@@ -403,9 +345,6 @@
     <t>熟練辨識角柱與圓柱，並計算其頂點、邊、面的數量。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「n 角柱」有 (n+2) 個面、(3n) 條邊、(2n) 個頂點。</t>
-  </si>
-  <si>
     <t>jh_geo_3d_pyramid_def</t>
   </si>
   <si>
@@ -418,9 +357,6 @@
     <t>熟練辨識角錐與圓錐，並計算其頂點、邊、面的數量。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「n 角錐」有 (n+1) 個面、(2n) 條邊、(n+1) 個頂點。</t>
-  </si>
-  <si>
     <t>jh_geo_3d_surface_area_prism</t>
   </si>
   <si>
@@ -433,9 +369,6 @@
     <t>熟練計算柱體（角柱、圓柱）的表面積（底面積×2 + 側面積）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「表面積」= (上底 + 下底) + (側面面積)。圓柱側面積 = (底面周長) × 高。</t>
-  </si>
-  <si>
     <t>jh_geo_3d_surface_area_pyramid</t>
   </si>
   <si>
@@ -448,9 +381,6 @@
     <t>熟練計算錐體（角錐、圓錐）的表面積（底面積 + 側面面積）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「表面積」= (底面積) + (所有側面三角形/扇形面積)。</t>
-  </si>
-  <si>
     <t>jh_geo_3d_volume_prism</t>
   </si>
   <si>
@@ -463,9 +393,6 @@
     <t>熟練計算柱體（角柱、圓柱）的體積 V = 底面積 × 高。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「柱體體積」V = (底面積) × (高)。</t>
-  </si>
-  <si>
     <t>jh_geo_3d_volume_pyramid</t>
   </si>
   <si>
@@ -478,23 +405,281 @@
     <t>熟練計算錐體（角錐、圓錐）的體積 V = 1/3 × 底面積 × 高。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「錐體體積」V = (1/3) × (底面積) × (高)。</t>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「二次」函數的 x 最高次方「必須」是 2 次。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 y=ax² 的頂點是 (0,0)。若 a &gt; 0 開口向上；若 a &lt; 0 開口向下。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 y=ax²+k 是將 y=ax²「鉛直平移」k 單位，頂點移至 (0, k)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 y=a(x-h)² 是將 y=ax²「水平平移」h 單位，頂點移至 (h, 0)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 y=a(x-h)²+k 的頂點是 (h, k)，對稱軸是 x=h。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生配方步驟：加上「一次項係數一半的平方」，並在後面減掉。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生 1. 提出 a： y = a(x² + (b/a)x) + c。 2. 括號內配方。 3. 注意提出括號外的常數項。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生 1. 配方法找出頂點 (h, k)。 2. 若 a&gt;0 (開口向上)，在 x=h 有最小值 k。 3. 若 a&lt;0 (開口向下)，在 x=h 有最大值 k。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「與 y 軸交點」：令 x=0 代入；「與 x 軸交點」：令 y=0，解一元二次方程式。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 D &gt; 0 (兩交點)；D = 0 (相切，一交點)；D &lt; 0 (無交點)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生 1. 依題意列出 y = f(x) 的二次函數。 2. 配方法找出頂點。 3. 依據開口方向回答最大值或最小值。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 1. 先排序。 2. 找出 Me (Q₂), Q₁, Q₃。 3. 畫出盒子（Q₁ 到 Q₃）與鬍鬚（Min, Max）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「盒子」代表中間 50% 的資料，「盒子越短」代表資料越集中。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 P(A) = n(A) / n(S)，且 0 ≤ P(A) ≤ 1。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「所有可能結果」必須「不重複、不遺漏」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生「分步驟」畫樹狀圖，並計算「末端」共有幾種結果。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生畫出 6x6 (或 NxM) 的表格，並檢查總格數。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「至少...」的問題，通常用「全部機率 (1)」扣掉「完全沒有...」的機率比較快。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「平面」是無限延伸、平坦的面。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生判斷直線 L 與平面 E 有「0 個」、「1 個」或「無限多個」交點。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生判斷兩平面 E₁, E₂ 有「0 個」、「1 條線」或「無限多個」交點。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「歪斜」的條件是「不平行」且「不相交」（在不同平面上）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「n 角柱」有 (n+2) 個面、(3n) 條邊、(2n) 個頂點。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「n 角錐」有 (n+1) 個面、(2n) 條邊、(n+1) 個頂點。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「表面積」= (上底 + 下底) + (側面面積)。圓柱側面積 = (底面周長) × 高。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「表面積」= (底面積) + (所有側面三角形/扇形面積)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「柱體體積」V = (底面積) × (高)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「錐體體積」V = (1/3) × (底面積) × (高)。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -503,36 +688,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -722,20 +914,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="28.4609375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -787,865 +987,865 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5880.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5890.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5900.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5910.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="H6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>5920.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="H7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>5930.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="H8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>5940.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="H9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>5950.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="H10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>5960.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="H11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>5970.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>5980.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>5990.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>6000.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>6010.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>6020.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>6030.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>6040.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>6050.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>6060.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>6070.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>6080.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H23" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>6090.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>6100.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H25" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>6110.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>6120.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H27" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>6130.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>6140.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
@@ -1654,16 +1854,17 @@
         <v>155</v>
       </c>
       <c r="H29" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J29" s="1">
-        <v>6150.0</v>
+        <v>6150</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>